--- a/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2820ECF4-D921-4088-B957-990E6297035A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{521F566E-2F5A-4C34-8F9A-29C3C97E83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B5623DD0-3B35-461A-969C-DB1ABBBB04E7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{949E2286-F327-45FD-812A-80735816867E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>23,6%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
     <t>90,57%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>4,62%</t>
   </si>
   <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
     <t>79,8%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
     <t>87,01%</t>
   </si>
   <si>
@@ -566,6 +566,60 @@
     <t>4,98%</t>
   </si>
   <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
     <t>83,76%</t>
   </si>
   <si>
@@ -620,60 +674,6 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
     <t>90,7%</t>
   </si>
   <si>
@@ -785,6 +785,60 @@
     <t>10,38%</t>
   </si>
   <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
     <t>88,61%</t>
   </si>
   <si>
@@ -794,9 +848,6 @@
     <t>91,49%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
     <t>87,08%</t>
   </si>
   <si>
@@ -821,9 +872,6 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
     <t>7,67%</t>
   </si>
   <si>
@@ -837,54 +885,6 @@
   </si>
   <si>
     <t>12,85%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
   </si>
   <si>
     <t>88,67%</t>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D3227A-9B2F-485B-8A5F-98AC031653CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884450B0-B884-4E21-B289-AA3FA392C7C0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="D7" s="7">
-        <v>230748</v>
+        <v>201580</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1618,10 +1618,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="I7" s="7">
-        <v>202156</v>
+        <v>192749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1633,10 +1633,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="N7" s="7">
-        <v>432904</v>
+        <v>394329</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1654,10 +1654,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>48681</v>
+        <v>15072</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1669,10 +1669,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>63447</v>
+        <v>12473</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1684,10 +1684,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>112128</v>
+        <v>27545</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1705,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>279429</v>
+        <v>216652</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1720,10 +1720,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1735,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>813</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>545032</v>
+        <v>421874</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="D10" s="7">
-        <v>201580</v>
+        <v>230748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1773,10 +1773,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="I10" s="7">
-        <v>192749</v>
+        <v>202156</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1788,10 +1788,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="N10" s="7">
-        <v>394329</v>
+        <v>432904</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1809,10 +1809,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>15072</v>
+        <v>48681</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1824,10 +1824,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>12473</v>
+        <v>63447</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1839,10 +1839,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="N11" s="7">
-        <v>27545</v>
+        <v>112128</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1860,10 +1860,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D12" s="7">
-        <v>216652</v>
+        <v>279429</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1875,10 +1875,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1890,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>813</v>
       </c>
       <c r="N12" s="7">
-        <v>421874</v>
+        <v>545032</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2076,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CA748-4DC4-436C-AD03-8B1B820B30BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A06561F-1722-4DED-8C2D-9A9F7309BF17}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2349,10 +2349,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7">
-        <v>215541</v>
+        <v>222671</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2364,10 +2364,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I7" s="7">
-        <v>204956</v>
+        <v>209656</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2379,10 +2379,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="N7" s="7">
-        <v>420497</v>
+        <v>432329</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2400,10 +2400,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>54564</v>
+        <v>17935</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2415,10 +2415,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>50196</v>
+        <v>18183</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2430,10 +2430,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>104760</v>
+        <v>36117</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2451,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>270105</v>
+        <v>240606</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2466,10 +2466,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>255152</v>
+        <v>227839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2481,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>761</v>
+        <v>652</v>
       </c>
       <c r="N9" s="7">
-        <v>525257</v>
+        <v>468446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2504,10 +2504,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7">
-        <v>222671</v>
+        <v>215541</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2519,10 +2519,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I10" s="7">
-        <v>209656</v>
+        <v>204956</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2534,10 +2534,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="N10" s="7">
-        <v>432329</v>
+        <v>420497</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2555,10 +2555,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>17935</v>
+        <v>54564</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2570,10 +2570,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>18183</v>
+        <v>50196</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2585,10 +2585,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>36117</v>
+        <v>104760</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2606,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240606</v>
+        <v>270105</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2621,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="I12" s="7">
-        <v>227839</v>
+        <v>255152</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2636,10 +2636,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>652</v>
+        <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>468446</v>
+        <v>525257</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2665,7 +2665,7 @@
         <v>663691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>142</v>
@@ -2716,7 +2716,7 @@
         <v>81283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>150</v>
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0E80A4-7E0A-454A-9AE3-4665DADCEF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487C8AAF-5A8A-4C3D-AAD4-0BD95A940741}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3095,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D7" s="7">
-        <v>235350</v>
+        <v>234064</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -3110,10 +3110,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="I7" s="7">
-        <v>226743</v>
+        <v>215116</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -3125,10 +3125,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="N7" s="7">
-        <v>462093</v>
+        <v>449181</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>181</v>
@@ -3146,10 +3146,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>45617</v>
+        <v>15988</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
@@ -3161,10 +3161,10 @@
         <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>41027</v>
+        <v>18371</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>187</v>
@@ -3176,10 +3176,10 @@
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>86644</v>
+        <v>34359</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3197,10 +3197,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>280967</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3212,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>233487</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3227,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="N9" s="7">
-        <v>548737</v>
+        <v>483540</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3250,10 +3250,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>234064</v>
+        <v>235350</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3265,10 +3265,10 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="I10" s="7">
-        <v>215116</v>
+        <v>226743</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
@@ -3280,10 +3280,10 @@
         <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="N10" s="7">
-        <v>449181</v>
+        <v>462093</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3301,10 +3301,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7">
-        <v>15988</v>
+        <v>45617</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3316,10 +3316,10 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>18371</v>
+        <v>41027</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
@@ -3331,10 +3331,10 @@
         <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>34359</v>
+        <v>86644</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3352,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>280967</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3367,10 +3367,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>233487</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3382,10 +3382,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="N12" s="7">
-        <v>483540</v>
+        <v>548737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3568,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB0380A-AE7B-4E4D-B1F1-0BB5923D00E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87A6495-3BB2-4A12-9905-8E10A272DE0E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,10 +3841,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>421</v>
+        <v>238</v>
       </c>
       <c r="D7" s="7">
-        <v>356861</v>
+        <v>177938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>248</v>
@@ -3856,10 +3856,10 @@
         <v>250</v>
       </c>
       <c r="H7" s="7">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7">
-        <v>315268</v>
+        <v>178807</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>251</v>
@@ -3871,10 +3871,10 @@
         <v>253</v>
       </c>
       <c r="M7" s="7">
-        <v>832</v>
+        <v>489</v>
       </c>
       <c r="N7" s="7">
-        <v>672129</v>
+        <v>356746</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>254</v>
@@ -3892,10 +3892,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>45849</v>
+        <v>27117</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>257</v>
@@ -3907,10 +3907,10 @@
         <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>34346</v>
+        <v>19460</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>260</v>
@@ -3922,10 +3922,10 @@
         <v>262</v>
       </c>
       <c r="M8" s="7">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>80195</v>
+        <v>46577</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>263</v>
@@ -3943,10 +3943,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3958,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3973,10 +3973,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>752324</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3996,10 +3996,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>177938</v>
+        <v>356861</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>266</v>
@@ -4011,10 +4011,10 @@
         <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>251</v>
+        <v>411</v>
       </c>
       <c r="I10" s="7">
-        <v>178807</v>
+        <v>315268</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>251</v>
@@ -4026,10 +4026,10 @@
         <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>489</v>
+        <v>832</v>
       </c>
       <c r="N10" s="7">
-        <v>356746</v>
+        <v>672129</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>271</v>
@@ -4047,10 +4047,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>27117</v>
+        <v>45849</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>274</v>
@@ -4062,10 +4062,10 @@
         <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>19460</v>
+        <v>34346</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>260</v>
@@ -4077,10 +4077,10 @@
         <v>278</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>46577</v>
+        <v>80195</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>279</v>
@@ -4098,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +4113,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4128,10 +4128,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>752324</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521F566E-2F5A-4C34-8F9A-29C3C97E83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A261763-4FB6-48A4-8E73-C20D256FA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{949E2286-F327-45FD-812A-80735816867E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64406CE4-6941-4361-B5A0-443D3D25B17F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="351">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -68,877 +68,1030 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1102,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1045,39 +1198,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1129,7 +1282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1240,13 +1393,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1255,6 +1401,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1319,19 +1472,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884450B0-B884-4E21-B289-AA3FA392C7C0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A83D4A3-2854-42CB-98FC-12468F7AB845}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1448,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>216628</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1463,85 +1636,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>205216</v>
+        <v>1216</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1216</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>636</v>
-      </c>
-      <c r="N4" s="7">
-        <v>421844</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>178</v>
+      </c>
+      <c r="D5" s="7">
+        <v>118692</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3846</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>157</v>
+      </c>
+      <c r="I5" s="7">
+        <v>102964</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2988</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>335</v>
+      </c>
+      <c r="N5" s="7">
+        <v>221656</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6834</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,153 +1723,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>330</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7">
-        <v>220474</v>
+        <v>118692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="I6" s="7">
-        <v>208204</v>
+        <v>104180</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>337</v>
       </c>
       <c r="N6" s="7">
-        <v>428678</v>
+        <v>222872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>201580</v>
+        <v>13045</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11595</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>38</v>
+      </c>
+      <c r="N7" s="7">
+        <v>24640</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>285</v>
-      </c>
-      <c r="I7" s="7">
-        <v>192749</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>590</v>
-      </c>
-      <c r="N7" s="7">
-        <v>394329</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>15072</v>
+        <v>240026</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
+        <v>361</v>
+      </c>
+      <c r="I8" s="7">
+        <v>241610</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>722</v>
+      </c>
+      <c r="N8" s="7">
+        <v>481636</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12473</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>42</v>
-      </c>
-      <c r="N8" s="7">
-        <v>27545</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,153 +1878,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>216652</v>
+        <v>253071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>632</v>
+        <v>760</v>
       </c>
       <c r="N9" s="7">
-        <v>421874</v>
+        <v>506276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>230748</v>
+        <v>12442</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15508</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7">
+        <v>27950</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>301</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202156</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>647</v>
-      </c>
-      <c r="N10" s="7">
-        <v>432904</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7">
-        <v>48681</v>
+        <v>128369</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>168</v>
+      </c>
+      <c r="I11" s="7">
+        <v>112040</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>360</v>
+      </c>
+      <c r="N11" s="7">
+        <v>240409</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>93</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63447</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>166</v>
-      </c>
-      <c r="N11" s="7">
-        <v>112128</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,153 +2033,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>279429</v>
+        <v>140811</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>813</v>
+        <v>402</v>
       </c>
       <c r="N12" s="7">
-        <v>545032</v>
+        <v>268359</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>975</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>648955</v>
+        <v>42113</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>74</v>
+      </c>
+      <c r="I13" s="7">
+        <v>50588</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>137</v>
+      </c>
+      <c r="N13" s="7">
+        <v>92701</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>898</v>
-      </c>
-      <c r="I13" s="7">
-        <v>600121</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1249077</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>67600</v>
+        <v>161867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
+        <v>212</v>
+      </c>
+      <c r="I14" s="7">
+        <v>143509</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>456</v>
+      </c>
+      <c r="N14" s="7">
+        <v>305376</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>117</v>
-      </c>
-      <c r="I14" s="7">
-        <v>78908</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>219</v>
-      </c>
-      <c r="N14" s="7">
-        <v>146507</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,55 +2188,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>307</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203980</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>593</v>
+      </c>
+      <c r="N15" s="7">
+        <v>398077</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67600</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="7">
+        <v>117</v>
+      </c>
+      <c r="I16" s="7">
+        <v>78908</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="7">
+        <v>219</v>
+      </c>
+      <c r="N16" s="7">
+        <v>146507</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>975</v>
+      </c>
+      <c r="D17" s="7">
+        <v>648955</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>898</v>
+      </c>
+      <c r="I17" s="7">
+        <v>600121</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1873</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1249077</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1077</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>716555</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1015</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>679029</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2092</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1395584</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2076,8 +2410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A06561F-1722-4DED-8C2D-9A9F7309BF17}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CFC84D-13BF-4129-AE5E-55A00A8F1DCB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2093,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2194,100 +2528,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>225478</v>
+        <v>4698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>215746</v>
+        <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>643</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>441224</v>
+        <v>6742</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7">
-        <v>8785</v>
+        <v>137038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="I5" s="7">
-        <v>4839</v>
+        <v>140439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="N5" s="7">
-        <v>13624</v>
+        <v>277477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,153 +2630,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7">
-        <v>234263</v>
+        <v>141736</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="I6" s="7">
-        <v>220585</v>
+        <v>142483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>663</v>
+        <v>414</v>
       </c>
       <c r="N6" s="7">
-        <v>454848</v>
+        <v>284219</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>222671</v>
+        <v>14063</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>209656</v>
+        <v>12696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>601</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>432329</v>
+        <v>26759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>17935</v>
+        <v>252896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>18183</v>
+        <v>221276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>670</v>
       </c>
       <c r="N8" s="7">
-        <v>36117</v>
+        <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,153 +2785,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240606</v>
+        <v>266959</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>227839</v>
+        <v>233972</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>652</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468446</v>
+        <v>500932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>215541</v>
+        <v>19222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>204956</v>
+        <v>18869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>610</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>420497</v>
+        <v>38091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>54564</v>
+        <v>139349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>50196</v>
+        <v>138174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>151</v>
+        <v>396</v>
       </c>
       <c r="N11" s="7">
-        <v>104760</v>
+        <v>277523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,153 +2940,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270105</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>255152</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>761</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>525257</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>942</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>663691</v>
+        <v>43301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>912</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>630359</v>
+        <v>39610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1854</v>
+        <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>1294050</v>
+        <v>82910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="D14" s="7">
-        <v>81283</v>
+        <v>134408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="I14" s="7">
-        <v>73218</v>
+        <v>130468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>222</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>154501</v>
+        <v>264877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,55 +3095,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177709</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>170078</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>503</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347787</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>120</v>
+      </c>
+      <c r="D16" s="7">
+        <v>81283</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
+        <v>102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>73218</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="7">
+        <v>222</v>
+      </c>
+      <c r="N16" s="7">
+        <v>154501</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>942</v>
+      </c>
+      <c r="D17" s="7">
+        <v>663691</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>912</v>
+      </c>
+      <c r="I17" s="7">
+        <v>630359</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1294050</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1062</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744974</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1014</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>703577</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2076</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1448551</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2822,8 +3317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487C8AAF-5A8A-4C3D-AAD4-0BD95A940741}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC730A-4664-4356-88B3-2A3179230DAF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2839,7 +3334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2940,100 +3435,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>200480</v>
+        <v>890</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>189539</v>
+        <v>2349</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>610</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>390019</v>
+        <v>3239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>7047</v>
+        <v>117637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7">
-        <v>6141</v>
+        <v>123718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>13188</v>
+        <v>241355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,153 +3537,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="D6" s="7">
-        <v>207527</v>
+        <v>118527</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>195680</v>
+        <v>126067</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>630</v>
+        <v>381</v>
       </c>
       <c r="N6" s="7">
-        <v>403207</v>
+        <v>244594</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>234064</v>
+        <v>16042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>215116</v>
+        <v>11610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>449181</v>
+        <v>27652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>15988</v>
+        <v>242019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="I8" s="7">
-        <v>18371</v>
+        <v>197697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>668</v>
       </c>
       <c r="N8" s="7">
-        <v>34359</v>
+        <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,153 +3692,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="I9" s="7">
-        <v>233487</v>
+        <v>209307</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9" s="7">
-        <v>483540</v>
+        <v>467368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>235350</v>
+        <v>22434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>226743</v>
+        <v>24617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>633</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>462093</v>
+        <v>47052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7">
-        <v>45617</v>
+        <v>166138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>41027</v>
+        <v>163646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
-        <v>122</v>
+        <v>468</v>
       </c>
       <c r="N11" s="7">
-        <v>86644</v>
+        <v>329784</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,153 +3847,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>280967</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188263</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>755</v>
+        <v>534</v>
       </c>
       <c r="N12" s="7">
-        <v>548737</v>
+        <v>376836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>959</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>669894</v>
+        <v>29285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>952</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>631399</v>
+        <v>26962</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>1911</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>1301293</v>
+        <v>56248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>68652</v>
+        <v>144100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="I14" s="7">
-        <v>65539</v>
+        <v>146339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="N14" s="7">
-        <v>134191</v>
+        <v>290438</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,55 +4002,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173385</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346686</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68652</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7">
+        <v>97</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65539</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="7">
+        <v>194</v>
+      </c>
+      <c r="N16" s="7">
+        <v>134191</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>959</v>
+      </c>
+      <c r="D17" s="7">
+        <v>669894</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
+        <v>952</v>
+      </c>
+      <c r="I17" s="7">
+        <v>631399</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1911</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1301293</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1056</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>738546</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>1049</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>696938</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>2105</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1435484</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3568,8 +4224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87A6495-3BB2-4A12-9905-8E10A272DE0E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D63AE-2E9A-4684-8C54-E5C08D77F24F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3585,7 +4241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3686,100 +4342,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>108276</v>
+        <v>3238</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>95957</v>
+        <v>4381</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>204234</v>
+        <v>7619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>9240</v>
+        <v>54843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>7846</v>
+        <v>52988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>17086</v>
+        <v>107831</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,153 +4444,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7">
-        <v>117516</v>
+        <v>58081</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>221320</v>
+        <v>115450</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>177938</v>
+        <v>14870</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>178807</v>
+        <v>12754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>356746</v>
+        <v>27624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="D8" s="7">
-        <v>27117</v>
+        <v>160429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>19460</v>
+        <v>146011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>46577</v>
+        <v>306439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,153 +4599,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>356861</v>
+        <v>32196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>315268</v>
+        <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
-        <v>832</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>672129</v>
+        <v>50582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>45849</v>
+        <v>170282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>34346</v>
+        <v>157727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="N11" s="7">
-        <v>80195</v>
+        <v>328009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,153 +4754,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>752324</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>865</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>643076</v>
+        <v>31902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
-        <v>846</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>590032</v>
+        <v>26131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
-        <v>1711</v>
+        <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>1233109</v>
+        <v>58032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>82206</v>
+        <v>257522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>61652</v>
+        <v>233307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
-        <v>206</v>
+        <v>606</v>
       </c>
       <c r="N14" s="7">
-        <v>143858</v>
+        <v>490830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,55 +4909,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>683</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548862</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7">
+        <v>82206</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="7">
+        <v>95</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61652</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M16" s="7">
+        <v>206</v>
+      </c>
+      <c r="N16" s="7">
+        <v>143858</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>865</v>
+      </c>
+      <c r="D17" s="7">
+        <v>643076</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="7">
+        <v>846</v>
+      </c>
+      <c r="I17" s="7">
+        <v>590032</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1711</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1233109</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725282</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>651684</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1917</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1376967</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A261763-4FB6-48A4-8E73-C20D256FA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E9E4DD-85B9-4D8C-8FB9-E947A12965B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64406CE4-6941-4361-B5A0-443D3D25B17F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{735E2B77-78F1-4519-A554-7AE3C0FDE3B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -86,1009 +86,1021 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>88,53%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,07%</t>
+    <t>87,9%</t>
   </si>
   <si>
     <t>90,92%</t>
@@ -1503,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A83D4A3-2854-42CB-98FC-12468F7AB845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3A81B1-F0A0-4DFF-AFAF-1784B28908E8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2410,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CFC84D-13BF-4129-AE5E-55A00A8F1DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD22D1C-4D12-4423-B4AF-F124EB879961}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2707,10 +2719,10 @@
         <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2719,13 +2731,13 @@
         <v>26759</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2752,13 @@
         <v>252896</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -2755,13 +2767,13 @@
         <v>221276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>670</v>
@@ -2770,13 +2782,13 @@
         <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2856,13 @@
         <v>19222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2859,13 +2871,13 @@
         <v>18869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2874,13 +2886,13 @@
         <v>38091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2907,13 @@
         <v>139349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>196</v>
@@ -2910,13 +2922,13 @@
         <v>138174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>396</v>
@@ -2925,13 +2937,13 @@
         <v>277523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3011,13 @@
         <v>43301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -3017,10 +3029,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
@@ -3029,13 +3041,13 @@
         <v>82910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3062,13 @@
         <v>134408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3068,10 +3080,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -3080,13 +3092,13 @@
         <v>264877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3166,13 @@
         <v>81283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -3169,13 +3181,13 @@
         <v>73218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>222</v>
@@ -3184,13 +3196,13 @@
         <v>154501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3217,13 @@
         <v>663691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>912</v>
@@ -3220,13 +3232,13 @@
         <v>630359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>1854</v>
@@ -3235,13 +3247,13 @@
         <v>1294050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC730A-4664-4356-88B3-2A3179230DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AC5C2-032C-411D-9706-43EA343AF916}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3334,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3441,13 +3453,13 @@
         <v>890</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3456,13 +3468,13 @@
         <v>2349</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3471,13 +3483,13 @@
         <v>3239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,10 +3504,10 @@
         <v>117637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3507,13 +3519,13 @@
         <v>123718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -3522,13 +3534,13 @@
         <v>241355</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3608,13 @@
         <v>16042</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3611,13 +3623,13 @@
         <v>11610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3626,13 +3638,13 @@
         <v>27652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3659,13 @@
         <v>242019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>312</v>
@@ -3662,13 +3674,13 @@
         <v>197697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -3677,13 +3689,13 @@
         <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3763,13 @@
         <v>22434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3766,13 +3778,13 @@
         <v>24617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3781,13 +3793,13 @@
         <v>47052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3814,13 @@
         <v>166138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>236</v>
@@ -3817,13 +3829,13 @@
         <v>163646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>468</v>
@@ -3832,13 +3844,13 @@
         <v>329784</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3918,13 @@
         <v>29285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -3921,13 +3933,13 @@
         <v>26962</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3936,13 +3948,13 @@
         <v>56248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3969,13 @@
         <v>144100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -3972,13 +3984,13 @@
         <v>146339</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -3987,13 +3999,13 @@
         <v>290438</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4073,13 @@
         <v>68652</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4076,13 +4088,13 @@
         <v>65539</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4091,13 +4103,13 @@
         <v>134191</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4124,13 @@
         <v>669894</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>952</v>
@@ -4127,13 +4139,13 @@
         <v>631399</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>1911</v>
@@ -4142,13 +4154,13 @@
         <v>1301293</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3D63AE-2E9A-4684-8C54-E5C08D77F24F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DBCA03-8346-42D7-9DA9-431FC63A0B11}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,7 +4521,7 @@
         <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4518,13 +4530,13 @@
         <v>12754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4533,13 +4545,13 @@
         <v>27624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4566,13 @@
         <v>160429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -4569,13 +4581,13 @@
         <v>146011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
@@ -4584,13 +4596,13 @@
         <v>306439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4670,13 @@
         <v>32196</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4673,13 +4685,13 @@
         <v>18386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4688,13 +4700,13 @@
         <v>50582</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4721,13 @@
         <v>170282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -4724,13 +4736,13 @@
         <v>157727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>409</v>
@@ -4739,13 +4751,13 @@
         <v>328009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4825,13 @@
         <v>31902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4828,13 +4840,13 @@
         <v>26131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -4843,13 +4855,13 @@
         <v>58032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4876,13 @@
         <v>257522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4879,13 +4891,13 @@
         <v>233307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>606</v>
@@ -4894,13 +4906,13 @@
         <v>490830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4980,13 @@
         <v>82206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -4983,13 +4995,13 @@
         <v>61652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>206</v>
@@ -4998,13 +5010,13 @@
         <v>143858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5031,13 @@
         <v>643076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>846</v>
@@ -5034,13 +5046,13 @@
         <v>590032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>1711</v>
@@ -5049,13 +5061,13 @@
         <v>1233109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26C_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E9E4DD-85B9-4D8C-8FB9-E947A12965B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE705CCF-7F2A-4C78-9C5C-3BE047DFB738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{735E2B77-78F1-4519-A554-7AE3C0FDE3B0}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{05A73572-97D8-4A95-9EF4-2CC22CC9AC44}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
   <si>
     <t>Menores según si han tenido una quemadura en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,30 +74,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -107,1003 +113,1009 @@
     <t>100%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2016 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Menores según si han tenido una quemadura en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3A81B1-F0A0-4DFF-AFAF-1784B28908E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF4AA6-9227-4A83-A230-555A83988BAF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,10 +1645,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1648,16 +1660,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1672,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1684,10 +1696,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>118692</v>
+        <v>102964</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1699,19 +1711,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>102964</v>
+        <v>118692</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>335</v>
@@ -1726,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,34 +1747,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>159</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104180</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>178</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>118692</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>159</v>
-      </c>
-      <c r="I6" s="7">
-        <v>104180</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>337</v>
@@ -1771,13 +1783,13 @@
         <v>222872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,10 +1800,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>13045</v>
+        <v>11595</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1803,10 +1815,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>11595</v>
+        <v>13045</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1842,7 +1854,7 @@
         <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>240026</v>
+        <v>241610</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1857,7 +1869,7 @@
         <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>241610</v>
+        <v>240026</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1890,34 +1902,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253071</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>760</v>
@@ -1926,13 +1938,13 @@
         <v>506276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,10 +1955,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>12442</v>
+        <v>15508</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1958,10 +1970,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>15508</v>
+        <v>12442</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1994,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>128369</v>
+        <v>112040</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -2009,10 +2021,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="I11" s="7">
-        <v>112040</v>
+        <v>128369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -2045,34 +2057,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>211</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>140811</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>402</v>
@@ -2081,13 +2093,13 @@
         <v>268359</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,10 +2110,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>42113</v>
+        <v>50588</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -2113,10 +2125,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>50588</v>
+        <v>42113</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2149,10 +2161,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D14" s="7">
-        <v>161867</v>
+        <v>143509</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2164,10 +2176,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="I14" s="7">
-        <v>143509</v>
+        <v>161867</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2200,34 +2212,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>307</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>203980</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>593</v>
@@ -2236,13 +2248,13 @@
         <v>398077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,10 +2265,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>67600</v>
+        <v>78908</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2268,10 +2280,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>78908</v>
+        <v>67600</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2304,10 +2316,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>975</v>
+        <v>898</v>
       </c>
       <c r="D17" s="7">
-        <v>648955</v>
+        <v>600121</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>92</v>
@@ -2319,10 +2331,10 @@
         <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>898</v>
+        <v>975</v>
       </c>
       <c r="I17" s="7">
-        <v>600121</v>
+        <v>648955</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>95</v>
@@ -2355,34 +2367,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D18" s="7">
+        <v>679029</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1077</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>716555</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I18" s="7">
-        <v>679029</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2092</v>
@@ -2391,13 +2403,13 @@
         <v>1395584</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD22D1C-4D12-4423-B4AF-F124EB879961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61A5987-9BA9-4110-A0F2-4F536A707BCF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,10 +2552,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4698</v>
+        <v>2044</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>103</v>
@@ -2555,10 +2567,10 @@
         <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2044</v>
+        <v>4698</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>106</v>
@@ -2591,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D5" s="7">
-        <v>137038</v>
+        <v>140439</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>112</v>
@@ -2606,10 +2618,10 @@
         <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>140439</v>
+        <v>137038</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>115</v>
@@ -2642,34 +2654,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>213</v>
+      </c>
+      <c r="D6" s="7">
+        <v>142483</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>201</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>141736</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>213</v>
-      </c>
-      <c r="I6" s="7">
-        <v>142483</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>414</v>
@@ -2678,13 +2690,13 @@
         <v>284219</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,10 +2707,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>14063</v>
+        <v>12696</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>121</v>
@@ -2710,19 +2722,19 @@
         <v>123</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>12696</v>
+        <v>14063</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2731,13 +2743,13 @@
         <v>26759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,34 +2758,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>319</v>
+      </c>
+      <c r="D8" s="7">
+        <v>221276</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
         <v>351</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252896</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="7">
-        <v>319</v>
-      </c>
-      <c r="I8" s="7">
-        <v>221276</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>670</v>
@@ -2782,13 +2794,13 @@
         <v>474173</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,34 +2809,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>233972</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>266959</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>233972</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>708</v>
@@ -2833,13 +2845,13 @@
         <v>500932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,34 +2862,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>18869</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="7">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>19222</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18869</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2886,13 +2898,13 @@
         <v>38091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,34 +2913,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>196</v>
+      </c>
+      <c r="D11" s="7">
+        <v>138174</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7">
         <v>200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>139349</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="7">
-        <v>196</v>
-      </c>
-      <c r="I11" s="7">
-        <v>138174</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>396</v>
@@ -2937,13 +2949,13 @@
         <v>277523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,34 +2964,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>451</v>
@@ -2988,13 +3000,13 @@
         <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,34 +3017,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7">
+        <v>39610</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
         <v>65</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>43301</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>39610</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
@@ -3041,13 +3053,13 @@
         <v>82910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,34 +3068,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>187</v>
+      </c>
+      <c r="D14" s="7">
+        <v>130468</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="7">
         <v>197</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>134408</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="7">
-        <v>187</v>
-      </c>
-      <c r="I14" s="7">
-        <v>130468</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -3092,13 +3104,13 @@
         <v>264877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,34 +3119,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170078</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177709</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>170078</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>503</v>
@@ -3143,13 +3155,13 @@
         <v>347787</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,34 +3172,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7">
+        <v>73218</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
         <v>120</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>81283</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="7">
-        <v>102</v>
-      </c>
-      <c r="I16" s="7">
-        <v>73218</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>222</v>
@@ -3196,13 +3208,13 @@
         <v>154501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,34 +3223,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>912</v>
+      </c>
+      <c r="D17" s="7">
+        <v>630359</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
         <v>942</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>663691</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="7">
-        <v>912</v>
-      </c>
-      <c r="I17" s="7">
-        <v>630359</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1854</v>
@@ -3247,13 +3259,13 @@
         <v>1294050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,34 +3274,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1014</v>
+      </c>
+      <c r="D18" s="7">
+        <v>703577</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1062</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744974</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703577</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2076</v>
@@ -3298,13 +3310,13 @@
         <v>1448551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AC5C2-032C-411D-9706-43EA343AF916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2196A4-352E-4ACB-846D-9A83E3C7CAD1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3447,34 +3459,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2349</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>890</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2349</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3483,13 +3495,13 @@
         <v>3239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,34 +3510,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>198</v>
+      </c>
+      <c r="D5" s="7">
+        <v>123718</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="7">
         <v>178</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>117637</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>198</v>
-      </c>
-      <c r="I5" s="7">
-        <v>123718</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -3534,13 +3546,13 @@
         <v>241355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,34 +3561,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126067</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>179</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>118527</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>202</v>
-      </c>
-      <c r="I6" s="7">
-        <v>126067</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>381</v>
@@ -3585,13 +3597,13 @@
         <v>244594</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,34 +3614,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11610</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16042</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11610</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -3638,13 +3650,13 @@
         <v>27652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,34 +3665,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>312</v>
+      </c>
+      <c r="D8" s="7">
+        <v>197697</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="7">
         <v>356</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>242019</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="7">
-        <v>312</v>
-      </c>
-      <c r="I8" s="7">
-        <v>197697</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>668</v>
@@ -3689,13 +3701,13 @@
         <v>439716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,34 +3716,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>330</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209307</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>330</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209307</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>710</v>
@@ -3740,13 +3752,13 @@
         <v>467368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,34 +3769,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24617</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="7">
         <v>31</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>22434</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="7">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7">
-        <v>24617</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3793,13 +3805,13 @@
         <v>47052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,34 +3820,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>236</v>
+      </c>
+      <c r="D11" s="7">
+        <v>163646</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="7">
         <v>232</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>166138</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="J11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="7">
-        <v>163646</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>468</v>
@@ -3844,13 +3856,13 @@
         <v>329784</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,34 +3871,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>271</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188263</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>271</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188263</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>534</v>
@@ -3895,13 +3907,13 @@
         <v>376836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,34 +3924,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26962</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>29285</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26962</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3948,13 +3960,13 @@
         <v>56248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,34 +3975,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146339</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
         <v>193</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>144100</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="7">
-        <v>206</v>
-      </c>
-      <c r="I14" s="7">
-        <v>146339</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -3999,13 +4011,13 @@
         <v>290438</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,34 +4026,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>234</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173385</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>480</v>
@@ -4050,13 +4062,13 @@
         <v>346686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,31 +4082,31 @@
         <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>68652</v>
+        <v>65539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>65539</v>
+        <v>68652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4103,13 +4115,13 @@
         <v>134191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,49 +4130,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>952</v>
+      </c>
+      <c r="D17" s="7">
+        <v>631399</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="7">
         <v>959</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>669894</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="7">
-        <v>952</v>
-      </c>
-      <c r="I17" s="7">
-        <v>631399</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>1911</v>
       </c>
       <c r="N17" s="7">
-        <v>1301293</v>
+        <v>1301292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +4181,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1049</v>
+      </c>
+      <c r="D18" s="7">
+        <v>696938</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1056</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>738546</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I18" s="7">
-        <v>696938</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2105</v>
       </c>
       <c r="N18" s="7">
-        <v>1435484</v>
+        <v>1435483</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DBCA03-8346-42D7-9DA9-431FC63A0B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16F325-557B-4EDA-A7C1-7B2B29514688}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4253,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4354,49 +4366,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4415</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
-        <v>3238</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
       <c r="I4" s="7">
-        <v>4381</v>
+        <v>3268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>7619</v>
+        <v>7684</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,49 +4417,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53096</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
         <v>107</v>
       </c>
-      <c r="D5" s="7">
-        <v>54843</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="7">
-        <v>100</v>
-      </c>
       <c r="I5" s="7">
-        <v>52988</v>
+        <v>57750</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>107831</v>
+        <v>110845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,49 +4468,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>115</v>
       </c>
-      <c r="D6" s="7">
-        <v>58081</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115450</v>
+        <v>118529</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4521,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12262</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
-        <v>14870</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
       <c r="I7" s="7">
-        <v>12754</v>
+        <v>14958</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>27624</v>
+        <v>27220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,46 +4572,46 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>237</v>
+      </c>
+      <c r="D8" s="7">
+        <v>147037</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="7">
         <v>252</v>
       </c>
-      <c r="D8" s="7">
-        <v>160429</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="7">
-        <v>237</v>
-      </c>
       <c r="I8" s="7">
-        <v>146011</v>
+        <v>167596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>306439</v>
+        <v>314633</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>308</v>
@@ -4611,49 +4623,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,10 +4676,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>32196</v>
+        <v>17941</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>309</v>
@@ -4679,10 +4691,10 @@
         <v>311</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>18386</v>
+        <v>32635</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>312</v>
@@ -4697,16 +4709,16 @@
         <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>50582</v>
+        <v>50576</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4727,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>170282</v>
+        <v>155131</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>317</v>
@@ -4730,10 +4742,10 @@
         <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>157727</v>
+        <v>179855</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>320</v>
@@ -4748,16 +4760,16 @@
         <v>409</v>
       </c>
       <c r="N11" s="7">
-        <v>328009</v>
+        <v>334987</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,49 +4778,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,31 +4831,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25101</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="7">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
-        <v>31902</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>31935</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26131</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>329</v>
@@ -4852,16 +4864,16 @@
         <v>77</v>
       </c>
       <c r="N13" s="7">
-        <v>58032</v>
+        <v>57036</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4882,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D14" s="7">
-        <v>257522</v>
+        <v>249166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>333</v>
@@ -4885,10 +4897,10 @@
         <v>334</v>
       </c>
       <c r="H14" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I14" s="7">
-        <v>233307</v>
+        <v>273548</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>335</v>
@@ -4897,22 +4909,22 @@
         <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>606</v>
       </c>
       <c r="N14" s="7">
-        <v>490830</v>
+        <v>522714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,49 +4933,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>342</v>
       </c>
-      <c r="D15" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>548862</v>
+        <v>579750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4986,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>59719</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="7">
         <v>111</v>
       </c>
-      <c r="D16" s="7">
-        <v>82206</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" s="7">
-        <v>95</v>
-      </c>
       <c r="I16" s="7">
-        <v>61652</v>
+        <v>82796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>206</v>
       </c>
       <c r="N16" s="7">
-        <v>143858</v>
+        <v>142515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5037,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>846</v>
+      </c>
+      <c r="D17" s="7">
+        <v>604431</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="7">
         <v>865</v>
       </c>
-      <c r="D17" s="7">
-        <v>643076</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="7">
-        <v>846</v>
-      </c>
       <c r="I17" s="7">
-        <v>590032</v>
+        <v>678749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>1711</v>
       </c>
       <c r="N17" s="7">
-        <v>1233109</v>
+        <v>1283180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5088,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664150</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>725282</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>651684</v>
+        <v>761545</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>1376967</v>
+        <v>1425695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
